--- a/data/Admin_names_and_passwords.xlsx
+++ b/data/Admin_names_and_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,6 +429,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>WQpYRs6Z5ypqU9rdQxG81g==</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>0sW3wwTHtgZCMJl2LBi0vQ==</t>
         </is>
       </c>
@@ -441,7 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mCQ/KS+E+MCANGR9x1PUbQ==</t>
+          <t>8yROOEzl5xTZcZob/12e3Q==</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8yROOEzl5xTZcZob/12e3Q==</t>
         </is>
       </c>
     </row>
